--- a/data/processed/Majors.xlsx
+++ b/data/processed/Majors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="397">
   <si>
     <t>FOD1P</t>
   </si>
@@ -52,7 +52,10 @@
     <t>Major Category</t>
   </si>
   <si>
-    <t>Ocupation industry</t>
+    <t>OcupationID</t>
+  </si>
+  <si>
+    <t>Ocupation</t>
   </si>
   <si>
     <t>1100</t>
@@ -1132,40 +1135,76 @@
     <t>Social Science</t>
   </si>
   <si>
-    <t>45-0000  Farming, Fishing, and Forestry Occupations</t>
-  </si>
-  <si>
-    <t>27-0000  Arts, Design, Entertainment, Sports, and Media Occupations</t>
-  </si>
-  <si>
-    <t>19-0000  Life, Physical, and Social Science Occupations</t>
-  </si>
-  <si>
-    <t>13-0000  Business and Financial Operations Occupations</t>
-  </si>
-  <si>
-    <t>1-0000  Management Occupations</t>
-  </si>
-  <si>
-    <t>15-0000  Computer and Mathematical Occupations</t>
-  </si>
-  <si>
-    <t>25-0000  Educational Instruction and Library Occupations</t>
-  </si>
-  <si>
-    <t>17-0000  Architecture and Engineering Occupations</t>
-  </si>
-  <si>
-    <t>29-0000  Healthcare Practitioners and Technical Occupations</t>
-  </si>
-  <si>
-    <t>31-0000  Healthcare Support Occupations</t>
-  </si>
-  <si>
-    <t>23-0000  Legal Occupations</t>
-  </si>
-  <si>
-    <t>21-0000  Community and Social Service Occupations</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Farming, Fishing, and Forestry Occupations</t>
+  </si>
+  <si>
+    <t>Arts, Design, Entertainment, Sports, and Media Occupations</t>
+  </si>
+  <si>
+    <t>Life, Physical, and Social Science Occupations</t>
+  </si>
+  <si>
+    <t>Business and Financial Operations Occupations</t>
+  </si>
+  <si>
+    <t>Management Occupations</t>
+  </si>
+  <si>
+    <t>Computer and Mathematical Occupations</t>
+  </si>
+  <si>
+    <t>Educational Instruction and Library Occupations</t>
+  </si>
+  <si>
+    <t>Architecture and Engineering Occupations</t>
+  </si>
+  <si>
+    <t>Healthcare Practitioners and Technical Occupations</t>
+  </si>
+  <si>
+    <t>Healthcare Support Occupations</t>
+  </si>
+  <si>
+    <t>Legal Occupations</t>
+  </si>
+  <si>
+    <t>Community and Social Service Occupations</t>
   </si>
 </sst>
 </file>
@@ -1523,13 +1562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N198"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,19 +1608,22 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E2">
         <v>128148</v>
@@ -1608,24 +1650,27 @@
         <v>80000</v>
       </c>
       <c r="M2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E3">
         <v>95326</v>
@@ -1652,24 +1697,27 @@
         <v>80000</v>
       </c>
       <c r="M3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E4">
         <v>33955</v>
@@ -1696,24 +1744,27 @@
         <v>98000</v>
       </c>
       <c r="M4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E5">
         <v>103549</v>
@@ -1740,24 +1791,27 @@
         <v>72000</v>
       </c>
       <c r="M5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E6">
         <v>24280</v>
@@ -1784,24 +1838,27 @@
         <v>90000</v>
       </c>
       <c r="M6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E7">
         <v>79409</v>
@@ -1828,24 +1885,27 @@
         <v>75000</v>
       </c>
       <c r="M7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E8">
         <v>6586</v>
@@ -1872,24 +1932,27 @@
         <v>88000</v>
       </c>
       <c r="M8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E9">
         <v>8549</v>
@@ -1916,24 +1979,27 @@
         <v>75000</v>
       </c>
       <c r="M9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E10">
         <v>69447</v>
@@ -1960,24 +2026,27 @@
         <v>80000</v>
       </c>
       <c r="M10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E11">
         <v>83188</v>
@@ -2004,24 +2073,27 @@
         <v>75000</v>
       </c>
       <c r="M11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>373</v>
+      </c>
+      <c r="O11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E12">
         <v>571961</v>
@@ -2048,24 +2120,27 @@
         <v>70000</v>
       </c>
       <c r="M12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E13">
         <v>174817</v>
@@ -2092,24 +2167,27 @@
         <v>62000</v>
       </c>
       <c r="M13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E14">
         <v>276262</v>
@@ -2136,24 +2214,27 @@
         <v>67000</v>
       </c>
       <c r="M14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E15">
         <v>55141</v>
@@ -2180,24 +2261,27 @@
         <v>59000</v>
       </c>
       <c r="M15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E16">
         <v>504657</v>
@@ -2224,24 +2308,27 @@
         <v>70000</v>
       </c>
       <c r="M16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E17">
         <v>133508</v>
@@ -2268,24 +2355,27 @@
         <v>70000</v>
       </c>
       <c r="M17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E18">
         <v>81008</v>
@@ -2312,24 +2402,27 @@
         <v>58000</v>
       </c>
       <c r="M18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E19">
         <v>8511</v>
@@ -2356,24 +2449,27 @@
         <v>60000</v>
       </c>
       <c r="M19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E20">
         <v>106106</v>
@@ -2400,24 +2496,27 @@
         <v>75000</v>
       </c>
       <c r="M20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N20" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E21">
         <v>839454</v>
@@ -2444,24 +2543,27 @@
         <v>80000</v>
       </c>
       <c r="M21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N21" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E22">
         <v>75322</v>
@@ -2488,24 +2590,27 @@
         <v>82000</v>
       </c>
       <c r="M22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E23">
         <v>14135</v>
@@ -2532,24 +2637,27 @@
         <v>75000</v>
       </c>
       <c r="M23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N23" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E24">
         <v>28197</v>
@@ -2576,24 +2684,27 @@
         <v>70000</v>
       </c>
       <c r="M24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E25">
         <v>45368</v>
@@ -2620,24 +2731,27 @@
         <v>73000</v>
       </c>
       <c r="M25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E26">
         <v>6362</v>
@@ -2664,24 +2778,27 @@
         <v>80000</v>
       </c>
       <c r="M26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E27">
         <v>68885</v>
@@ -2708,24 +2825,27 @@
         <v>85000</v>
       </c>
       <c r="M27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E28">
         <v>5015</v>
@@ -2752,24 +2872,27 @@
         <v>105000</v>
       </c>
       <c r="M28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E29">
         <v>43984</v>
@@ -2796,24 +2919,27 @@
         <v>75000</v>
       </c>
       <c r="M29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N29" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E30">
         <v>55395</v>
@@ -2840,24 +2966,27 @@
         <v>85000</v>
       </c>
       <c r="M30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N30" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E31">
         <v>13676</v>
@@ -2884,24 +3013,27 @@
         <v>52000</v>
       </c>
       <c r="M31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E32">
         <v>29389</v>
@@ -2928,24 +3060,27 @@
         <v>72800</v>
       </c>
       <c r="M32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E33">
         <v>6898</v>
@@ -2972,24 +3107,27 @@
         <v>93000</v>
       </c>
       <c r="M33" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N33" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O33" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E34">
         <v>2148712</v>
@@ -3016,24 +3154,27 @@
         <v>95000</v>
       </c>
       <c r="M34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N34" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O34" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E35">
         <v>2148712</v>
@@ -3060,24 +3201,27 @@
         <v>95000</v>
       </c>
       <c r="M35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N35" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E36">
         <v>1779219</v>
@@ -3104,24 +3248,27 @@
         <v>100000</v>
       </c>
       <c r="M36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N36" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E37">
         <v>1779219</v>
@@ -3148,24 +3295,27 @@
         <v>100000</v>
       </c>
       <c r="M37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N37" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O37" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E38">
         <v>9763</v>
@@ -3192,24 +3342,27 @@
         <v>115000</v>
       </c>
       <c r="M38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N38" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O38" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D39" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E39">
         <v>9763</v>
@@ -3236,24 +3389,27 @@
         <v>115000</v>
       </c>
       <c r="M39" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E40">
         <v>3123510</v>
@@ -3280,24 +3436,27 @@
         <v>86000</v>
       </c>
       <c r="M40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N40" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O40" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E41">
         <v>3123510</v>
@@ -3324,24 +3483,27 @@
         <v>86000</v>
       </c>
       <c r="M41" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N41" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E42">
         <v>57200</v>
@@ -3368,24 +3530,27 @@
         <v>90000</v>
       </c>
       <c r="M42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E43">
         <v>57200</v>
@@ -3412,24 +3577,27 @@
         <v>90000</v>
       </c>
       <c r="M43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E44">
         <v>75547</v>
@@ -3456,24 +3624,27 @@
         <v>100000</v>
       </c>
       <c r="M44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D45" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E45">
         <v>75547</v>
@@ -3500,24 +3671,27 @@
         <v>100000</v>
       </c>
       <c r="M45" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N45" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E46">
         <v>1114624</v>
@@ -3544,24 +3718,27 @@
         <v>90000</v>
       </c>
       <c r="M46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N46" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E47">
         <v>1114624</v>
@@ -3588,24 +3765,27 @@
         <v>90000</v>
       </c>
       <c r="M47" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N47" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E48">
         <v>816548</v>
@@ -3632,24 +3812,27 @@
         <v>100000</v>
       </c>
       <c r="M48" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N48" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E49">
         <v>816548</v>
@@ -3676,24 +3859,27 @@
         <v>100000</v>
       </c>
       <c r="M49" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D50" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E50">
         <v>187274</v>
@@ -3720,24 +3906,27 @@
         <v>80000</v>
       </c>
       <c r="M50" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N50" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E51">
         <v>187274</v>
@@ -3764,24 +3953,27 @@
         <v>80000</v>
       </c>
       <c r="M51" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N51" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E52">
         <v>86064</v>
@@ -3808,24 +4000,27 @@
         <v>80000</v>
       </c>
       <c r="M52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N52" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E53">
         <v>86064</v>
@@ -3852,24 +4047,27 @@
         <v>80000</v>
       </c>
       <c r="M53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N53" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E54">
         <v>200854</v>
@@ -3896,24 +4094,27 @@
         <v>70000</v>
       </c>
       <c r="M54" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N54" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O54" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E55">
         <v>200854</v>
@@ -3940,24 +4141,27 @@
         <v>70000</v>
       </c>
       <c r="M55" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N55" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E56">
         <v>156673</v>
@@ -3984,24 +4188,27 @@
         <v>100000</v>
       </c>
       <c r="M56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N56" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O56" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E57">
         <v>156673</v>
@@ -4028,24 +4235,27 @@
         <v>100000</v>
       </c>
       <c r="M57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N57" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O57" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E58">
         <v>102753</v>
@@ -4072,24 +4282,27 @@
         <v>83000</v>
       </c>
       <c r="M58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>376</v>
+      </c>
+      <c r="O58" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E59">
         <v>102753</v>
@@ -4116,24 +4329,27 @@
         <v>83000</v>
       </c>
       <c r="M59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>377</v>
+      </c>
+      <c r="O59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E60">
         <v>987676</v>
@@ -4160,24 +4376,27 @@
         <v>80000</v>
       </c>
       <c r="M60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E61">
         <v>418104</v>
@@ -4204,24 +4423,27 @@
         <v>80000</v>
       </c>
       <c r="M61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N61" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O61" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E62">
         <v>211213</v>
@@ -4248,24 +4470,27 @@
         <v>70000</v>
       </c>
       <c r="M62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N62" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O62" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E63">
         <v>186829</v>
@@ -4292,24 +4517,27 @@
         <v>75000</v>
       </c>
       <c r="M63" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N63" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D64" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E64">
         <v>62141</v>
@@ -4336,24 +4564,27 @@
         <v>75000</v>
       </c>
       <c r="M64" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N64" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E65">
         <v>253782</v>
@@ -4380,24 +4611,27 @@
         <v>90000</v>
       </c>
       <c r="M65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N65" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E66">
         <v>29317</v>
@@ -4424,24 +4658,27 @@
         <v>85000</v>
       </c>
       <c r="M66" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N66" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O66" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E67">
         <v>783292</v>
@@ -4468,24 +4705,27 @@
         <v>105000</v>
       </c>
       <c r="M67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N67" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D68" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E68">
         <v>77805</v>
@@ -4512,24 +4752,27 @@
         <v>95000</v>
       </c>
       <c r="M68" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N68" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O68" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E69">
         <v>39362</v>
@@ -4556,24 +4799,27 @@
         <v>80000</v>
       </c>
       <c r="M69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N69" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O69" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E70">
         <v>51771</v>
@@ -4600,24 +4846,27 @@
         <v>80000</v>
       </c>
       <c r="M70" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N70" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O70" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E71">
         <v>432806</v>
@@ -4644,24 +4893,27 @@
         <v>100000</v>
       </c>
       <c r="M71" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N71" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O71" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E72">
         <v>19112</v>
@@ -4688,24 +4940,27 @@
         <v>106000</v>
       </c>
       <c r="M72" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N72" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O72" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E73">
         <v>24806</v>
@@ -4732,24 +4987,27 @@
         <v>102000</v>
       </c>
       <c r="M73" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N73" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O73" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E74">
         <v>7184</v>
@@ -4776,24 +5034,27 @@
         <v>136000</v>
       </c>
       <c r="M74" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N74" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>378</v>
+      </c>
+      <c r="O74" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E75">
         <v>1438867</v>
@@ -4820,24 +5081,27 @@
         <v>59000</v>
       </c>
       <c r="M75" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N75" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O75" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D76" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E76">
         <v>4037</v>
@@ -4864,24 +5128,27 @@
         <v>79000</v>
       </c>
       <c r="M76" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N76" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O76" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D77" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E77">
         <v>2396</v>
@@ -4908,24 +5175,27 @@
         <v>50000</v>
       </c>
       <c r="M77" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N77" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O77" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E78">
         <v>1446701</v>
@@ -4952,24 +5222,27 @@
         <v>50000</v>
       </c>
       <c r="M78" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N78" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O78" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E79">
         <v>68808</v>
@@ -4996,24 +5269,27 @@
         <v>60000</v>
       </c>
       <c r="M79" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N79" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O79" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E80">
         <v>281661</v>
@@ -5040,24 +5316,27 @@
         <v>66500</v>
       </c>
       <c r="M80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N80" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O80" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E81">
         <v>157079</v>
@@ -5084,24 +5363,27 @@
         <v>45800</v>
       </c>
       <c r="M81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N81" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O81" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E82">
         <v>56477</v>
@@ -5128,24 +5410,27 @@
         <v>61000</v>
       </c>
       <c r="M82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N82" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D83" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E83">
         <v>224262</v>
@@ -5172,24 +5457,27 @@
         <v>60000</v>
       </c>
       <c r="M83" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N83" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O83" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E84">
         <v>149689</v>
@@ -5216,24 +5504,27 @@
         <v>53000</v>
       </c>
       <c r="M84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N84" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O84" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E85">
         <v>127022</v>
@@ -5260,24 +5551,27 @@
         <v>64000</v>
       </c>
       <c r="M85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N85" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O85" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E86">
         <v>88067</v>
@@ -5304,24 +5598,27 @@
         <v>51000</v>
       </c>
       <c r="M86" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N86" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O86" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E87">
         <v>181445</v>
@@ -5348,24 +5645,27 @@
         <v>54000</v>
       </c>
       <c r="M87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N87" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O87" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E88">
         <v>231861</v>
@@ -5392,24 +5692,27 @@
         <v>56000</v>
       </c>
       <c r="M88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N88" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O88" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E89">
         <v>225553</v>
@@ -5436,24 +5739,27 @@
         <v>71000</v>
       </c>
       <c r="M89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N89" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O89" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E90">
         <v>16193</v>
@@ -5480,24 +5786,27 @@
         <v>55000</v>
       </c>
       <c r="M90" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N90" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O90" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E91">
         <v>294692</v>
@@ -5524,24 +5833,27 @@
         <v>93500</v>
       </c>
       <c r="M91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N91" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O91" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E92">
         <v>503080</v>
@@ -5568,24 +5880,27 @@
         <v>100000</v>
       </c>
       <c r="M92" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N92" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O92" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E93">
         <v>65734</v>
@@ -5612,24 +5927,27 @@
         <v>110000</v>
       </c>
       <c r="M93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N93" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O93" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E94">
         <v>32748</v>
@@ -5656,24 +5974,27 @@
         <v>91000</v>
       </c>
       <c r="M94" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N94" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O94" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E95">
         <v>19587</v>
@@ -5700,24 +6021,27 @@
         <v>102000</v>
       </c>
       <c r="M95" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N95" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O95" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E96">
         <v>18347</v>
@@ -5744,24 +6068,27 @@
         <v>96000</v>
       </c>
       <c r="M96" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N96" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O96" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E97">
         <v>188046</v>
@@ -5788,24 +6115,27 @@
         <v>120000</v>
       </c>
       <c r="M97" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N97" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O97" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E98">
         <v>358593</v>
@@ -5832,24 +6162,27 @@
         <v>105000</v>
       </c>
       <c r="M98" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N98" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O98" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E99">
         <v>154160</v>
@@ -5876,24 +6209,27 @@
         <v>107000</v>
       </c>
       <c r="M99" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N99" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D100" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E100">
         <v>671647</v>
@@ -5920,24 +6256,27 @@
         <v>116000</v>
       </c>
       <c r="M100" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N100" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O100" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D101" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E101">
         <v>20582</v>
@@ -5964,24 +6303,27 @@
         <v>100000</v>
       </c>
       <c r="M101" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N101" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O101" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E102">
         <v>13016</v>
@@ -6008,24 +6350,27 @@
         <v>95000</v>
       </c>
       <c r="M102" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N102" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O102" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D103" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E103">
         <v>6264</v>
@@ -6052,24 +6397,27 @@
         <v>125000</v>
       </c>
       <c r="M103" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N103" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O103" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D104" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E104">
         <v>138366</v>
@@ -6096,24 +6444,27 @@
         <v>101000</v>
       </c>
       <c r="M104" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N104" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O104" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D105" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E105">
         <v>21430</v>
@@ -6140,24 +6491,27 @@
         <v>105000</v>
       </c>
       <c r="M105" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N105" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O105" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E106">
         <v>581529</v>
@@ -6184,24 +6538,27 @@
         <v>110000</v>
       </c>
       <c r="M106" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N106" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E107">
         <v>12818</v>
@@ -6228,24 +6585,27 @@
         <v>123000</v>
       </c>
       <c r="M107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N107" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O107" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E108">
         <v>10746</v>
@@ -6272,24 +6632,27 @@
         <v>124000</v>
       </c>
       <c r="M108" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N108" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O108" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E109">
         <v>16094</v>
@@ -6316,24 +6679,27 @@
         <v>125000</v>
       </c>
       <c r="M109" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N109" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O109" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D110" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E110">
         <v>9826</v>
@@ -6360,24 +6726,27 @@
         <v>128000</v>
       </c>
       <c r="M110" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N110" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O110" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D111" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E111">
         <v>19631</v>
@@ -6404,24 +6773,27 @@
         <v>210000</v>
       </c>
       <c r="M111" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N111" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O111" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D112" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E112">
         <v>57006</v>
@@ -6448,24 +6820,27 @@
         <v>100000</v>
       </c>
       <c r="M112" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N112" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O112" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D113" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E113">
         <v>37382</v>
@@ -6492,24 +6867,27 @@
         <v>93000</v>
       </c>
       <c r="M113" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N113" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O113" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D114" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E114">
         <v>47098</v>
@@ -6536,24 +6914,27 @@
         <v>107000</v>
       </c>
       <c r="M114" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N114" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O114" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D115" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E115">
         <v>94697</v>
@@ -6580,24 +6961,27 @@
         <v>91000</v>
       </c>
       <c r="M115" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N115" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O115" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E116">
         <v>82142</v>
@@ -6624,24 +7008,27 @@
         <v>98000</v>
       </c>
       <c r="M116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N116" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O116" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D117" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E117">
         <v>29348</v>
@@ -6668,24 +7055,27 @@
         <v>82000</v>
       </c>
       <c r="M117" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N117" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O117" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D118" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E118">
         <v>64196</v>
@@ -6712,24 +7102,27 @@
         <v>90000</v>
       </c>
       <c r="M118" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N118" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O118" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D119" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E119">
         <v>7208</v>
@@ -6756,24 +7149,27 @@
         <v>100000</v>
       </c>
       <c r="M119" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N119" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O119" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E120">
         <v>64534</v>
@@ -6800,24 +7196,27 @@
         <v>69000</v>
       </c>
       <c r="M120" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N120" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O120" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D121" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E121">
         <v>64534</v>
@@ -6844,24 +7243,27 @@
         <v>69000</v>
       </c>
       <c r="M121" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N121" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O121" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D122" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E122">
         <v>104516</v>
@@ -6888,24 +7290,27 @@
         <v>73000</v>
       </c>
       <c r="M122" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N122" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O122" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E123">
         <v>104516</v>
@@ -6932,24 +7337,27 @@
         <v>73000</v>
       </c>
       <c r="M123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N123" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O123" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E124">
         <v>74977</v>
@@ -6976,24 +7384,27 @@
         <v>60000</v>
       </c>
       <c r="M124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N124" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O124" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D125" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E125">
         <v>74977</v>
@@ -7020,24 +7431,27 @@
         <v>60000</v>
       </c>
       <c r="M125" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N125" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O125" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D126" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E126">
         <v>108510</v>
@@ -7064,24 +7478,27 @@
         <v>75000</v>
       </c>
       <c r="M126" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N126" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O126" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D127" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E127">
         <v>108510</v>
@@ -7108,24 +7525,27 @@
         <v>75000</v>
       </c>
       <c r="M127" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N127" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O127" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D128" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E128">
         <v>64316</v>
@@ -7152,24 +7572,27 @@
         <v>75000</v>
       </c>
       <c r="M128" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N128" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O128" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C129" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E129">
         <v>64316</v>
@@ -7196,24 +7619,27 @@
         <v>75000</v>
       </c>
       <c r="M129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N129" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O129" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C130" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D130" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E130">
         <v>164990</v>
@@ -7240,24 +7666,27 @@
         <v>76000</v>
       </c>
       <c r="M130" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N130" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O130" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D131" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E131">
         <v>164990</v>
@@ -7284,24 +7713,27 @@
         <v>76000</v>
       </c>
       <c r="M131" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N131" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O131" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C132" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D132" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E132">
         <v>32514</v>
@@ -7328,24 +7760,27 @@
         <v>85000</v>
       </c>
       <c r="M132" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N132" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O132" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E133">
         <v>32514</v>
@@ -7372,24 +7807,27 @@
         <v>85000</v>
       </c>
       <c r="M133" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N133" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O133" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D134" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E134">
         <v>1769892</v>
@@ -7416,24 +7854,27 @@
         <v>80000</v>
       </c>
       <c r="M134" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N134" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O134" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D135" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E135">
         <v>1769892</v>
@@ -7460,24 +7901,27 @@
         <v>80000</v>
       </c>
       <c r="M135" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N135" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O135" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C136" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D136" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E136">
         <v>180084</v>
@@ -7504,24 +7948,27 @@
         <v>125000</v>
       </c>
       <c r="M136" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N136" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O136" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D137" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E137">
         <v>180084</v>
@@ -7548,24 +7995,27 @@
         <v>125000</v>
       </c>
       <c r="M137" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N137" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O137" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C138" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D138" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E138">
         <v>252138</v>
@@ -7592,24 +8042,27 @@
         <v>80000</v>
       </c>
       <c r="M138" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N138" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O138" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C139" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D139" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E139">
         <v>252138</v>
@@ -7636,24 +8089,27 @@
         <v>80000</v>
       </c>
       <c r="M139" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N139" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O139" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C140" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D140" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E140">
         <v>56741</v>
@@ -7680,24 +8136,27 @@
         <v>70000</v>
       </c>
       <c r="M140" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N140" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O140" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D141" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E141">
         <v>56741</v>
@@ -7724,24 +8183,27 @@
         <v>70000</v>
       </c>
       <c r="M141" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N141" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O141" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C142" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D142" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E142">
         <v>77647</v>
@@ -7768,24 +8230,27 @@
         <v>62000</v>
       </c>
       <c r="M142" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N142" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O142" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D143" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E143">
         <v>77647</v>
@@ -7812,24 +8277,27 @@
         <v>62000</v>
       </c>
       <c r="M143" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N143" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O143" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D144" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E144">
         <v>103740</v>
@@ -7856,24 +8324,27 @@
         <v>71000</v>
       </c>
       <c r="M144" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N144" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O144" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D145" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E145">
         <v>75791</v>
@@ -7900,24 +8371,27 @@
         <v>70000</v>
       </c>
       <c r="M145" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N145" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O145" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C146" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D146" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E146">
         <v>236342</v>
@@ -7944,24 +8418,27 @@
         <v>69000</v>
       </c>
       <c r="M146" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N146" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O146" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D147" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E147">
         <v>57793</v>
@@ -7988,24 +8465,27 @@
         <v>75000</v>
       </c>
       <c r="M147" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N147" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O147" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C148" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D148" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E148">
         <v>1098647</v>
@@ -8032,24 +8512,27 @@
         <v>75000</v>
       </c>
       <c r="M148" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N148" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O148" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D149" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E149">
         <v>59211</v>
@@ -8076,24 +8559,27 @@
         <v>65000</v>
       </c>
       <c r="M149" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N149" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O149" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C150" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D150" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E150">
         <v>601221</v>
@@ -8120,24 +8606,27 @@
         <v>75000</v>
       </c>
       <c r="M150" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N150" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O150" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D151" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E151">
         <v>46188</v>
@@ -8164,24 +8653,27 @@
         <v>70000</v>
       </c>
       <c r="M151" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N151" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O151" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C152" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D152" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E152">
         <v>56580</v>
@@ -8208,24 +8700,27 @@
         <v>69000</v>
       </c>
       <c r="M152" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N152" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O152" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D153" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E153">
         <v>205763</v>
@@ -8252,24 +8747,27 @@
         <v>70000</v>
       </c>
       <c r="M153" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N153" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O153" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C154" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D154" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E154">
         <v>232865</v>
@@ -8296,24 +8794,27 @@
         <v>56000</v>
       </c>
       <c r="M154" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N154" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O154" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C155" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D155" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E155">
         <v>143087</v>
@@ -8340,24 +8841,27 @@
         <v>68000</v>
       </c>
       <c r="M155" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N155" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O155" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C156" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D156" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E156">
         <v>90852</v>
@@ -8384,24 +8888,27 @@
         <v>70000</v>
       </c>
       <c r="M156" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N156" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O156" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C157" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E157">
         <v>712509</v>
@@ -8428,24 +8935,27 @@
         <v>80000</v>
       </c>
       <c r="M157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N157" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O157" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D158" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E158">
         <v>17746</v>
@@ -8472,24 +8982,27 @@
         <v>81000</v>
       </c>
       <c r="M158" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N158" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O158" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C159" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D159" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E159">
         <v>42325</v>
@@ -8516,24 +9029,27 @@
         <v>60000</v>
       </c>
       <c r="M159" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N159" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O159" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C160" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D160" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E160">
         <v>402038</v>
@@ -8560,24 +9076,27 @@
         <v>60000</v>
       </c>
       <c r="M160" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N160" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O160" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C161" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D161" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E161">
         <v>4315</v>
@@ -8604,24 +9123,27 @@
         <v>90000</v>
       </c>
       <c r="M161" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N161" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O161" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C162" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D162" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E162">
         <v>350409</v>
@@ -8648,24 +9170,27 @@
         <v>60000</v>
       </c>
       <c r="M162" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N162" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O162" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D163" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E163">
         <v>92346</v>
@@ -8692,24 +9217,27 @@
         <v>95000</v>
       </c>
       <c r="M163" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N163" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O163" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C164" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D164" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E164">
         <v>15726</v>
@@ -8736,24 +9264,27 @@
         <v>75000</v>
       </c>
       <c r="M164" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N164" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O164" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C165" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D165" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E165">
         <v>126639</v>
@@ -8780,24 +9311,27 @@
         <v>98000</v>
       </c>
       <c r="M165" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N165" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O165" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C166" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D166" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E166">
         <v>9330</v>
@@ -8824,24 +9358,27 @@
         <v>75000</v>
       </c>
       <c r="M166" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N166" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>383</v>
+      </c>
+      <c r="O166" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C167" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D167" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E167">
         <v>67037</v>
@@ -8868,24 +9405,27 @@
         <v>70000</v>
       </c>
       <c r="M167" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N167" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>383</v>
+      </c>
+      <c r="O167" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C168" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D168" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E168">
         <v>757141</v>
@@ -8912,24 +9452,27 @@
         <v>74000</v>
       </c>
       <c r="M168" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N168" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>383</v>
+      </c>
+      <c r="O168" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D169" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E169">
         <v>54636</v>
@@ -8956,24 +9499,27 @@
         <v>85000</v>
       </c>
       <c r="M169" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N169" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>383</v>
+      </c>
+      <c r="O169" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C170" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D170" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E170">
         <v>14782</v>
@@ -9000,24 +9546,27 @@
         <v>90000</v>
       </c>
       <c r="M170" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N170" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>383</v>
+      </c>
+      <c r="O170" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C171" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D171" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E171">
         <v>8856</v>
@@ -9044,24 +9593,27 @@
         <v>89000</v>
       </c>
       <c r="M171" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N171" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O171" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C172" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E172">
         <v>4700</v>
@@ -9088,24 +9640,27 @@
         <v>106000</v>
       </c>
       <c r="M172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N172" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O172" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C173" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D173" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E173">
         <v>14051</v>
@@ -9132,24 +9687,27 @@
         <v>90000</v>
       </c>
       <c r="M173" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N173" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O173" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C174" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D174" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E174">
         <v>308062</v>
@@ -9176,24 +9734,27 @@
         <v>90000</v>
       </c>
       <c r="M174" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N174" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O174" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C175" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E175">
         <v>107902</v>
@@ -9220,24 +9781,27 @@
         <v>100000</v>
       </c>
       <c r="M175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N175" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O175" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C176" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D176" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E176">
         <v>8267</v>
@@ -9264,24 +9828,27 @@
         <v>80000</v>
       </c>
       <c r="M176" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N176" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O176" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C177" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D177" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E177">
         <v>10741</v>
@@ -9308,24 +9875,27 @@
         <v>90000</v>
       </c>
       <c r="M177" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N177" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O177" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C178" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D178" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E178">
         <v>122620</v>
@@ -9352,24 +9922,27 @@
         <v>110000</v>
       </c>
       <c r="M178" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N178" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O178" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C179" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D179" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E179">
         <v>427953</v>
@@ -9396,24 +9969,27 @@
         <v>85000</v>
       </c>
       <c r="M179" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N179" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O179" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C180" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D180" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E180">
         <v>12166</v>
@@ -9440,24 +10016,27 @@
         <v>80000</v>
       </c>
       <c r="M180" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N180" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O180" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C181" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D181" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E181">
         <v>1484075</v>
@@ -9484,24 +10063,27 @@
         <v>68000</v>
       </c>
       <c r="M181" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N181" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O181" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C182" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D182" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E182">
         <v>14041</v>
@@ -9528,24 +10110,27 @@
         <v>70000</v>
       </c>
       <c r="M182" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N182" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O182" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C183" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D183" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E183">
         <v>7638</v>
@@ -9572,24 +10157,27 @@
         <v>62000</v>
       </c>
       <c r="M183" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N183" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O183" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C184" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D184" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E184">
         <v>17633</v>
@@ -9616,24 +10204,27 @@
         <v>50000</v>
       </c>
       <c r="M184" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N184" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O184" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C185" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D185" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E185">
         <v>17969</v>
@@ -9660,24 +10251,27 @@
         <v>84000</v>
       </c>
       <c r="M185" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N185" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O185" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C186" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D186" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E186">
         <v>10871</v>
@@ -9704,24 +10298,27 @@
         <v>70000</v>
       </c>
       <c r="M186" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N186" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O186" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C187" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E187">
         <v>34102</v>
@@ -9748,24 +10345,27 @@
         <v>70000</v>
       </c>
       <c r="M187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N187" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O187" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C188" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D188" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E188">
         <v>81786</v>
@@ -9792,24 +10392,27 @@
         <v>52000</v>
       </c>
       <c r="M188" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N188" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O188" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C189" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D189" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E189">
         <v>319163</v>
@@ -9836,24 +10439,27 @@
         <v>53000</v>
       </c>
       <c r="M189" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N189" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O189" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C190" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D190" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E190">
         <v>61871</v>
@@ -9880,24 +10486,27 @@
         <v>67000</v>
       </c>
       <c r="M190" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N190" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C191" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D191" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E191">
         <v>127363</v>
@@ -9924,24 +10533,27 @@
         <v>75000</v>
       </c>
       <c r="M191" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N191" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O191" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C192" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D192" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E192">
         <v>757616</v>
@@ -9968,24 +10580,27 @@
         <v>110000</v>
       </c>
       <c r="M192" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N192" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O192" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C193" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D193" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E193">
         <v>75085</v>
@@ -10012,24 +10627,27 @@
         <v>72000</v>
       </c>
       <c r="M193" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N193" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O193" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C194" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D194" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E194">
         <v>115423</v>
@@ -10056,24 +10674,27 @@
         <v>78000</v>
       </c>
       <c r="M194" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N194" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C195" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D195" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E195">
         <v>77371</v>
@@ -10100,24 +10721,27 @@
         <v>89000</v>
       </c>
       <c r="M195" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N195" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O195" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E196">
         <v>748956</v>
@@ -10144,24 +10768,27 @@
         <v>90000</v>
       </c>
       <c r="M196" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N196" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O196" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C197" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D197" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E197">
         <v>674558</v>
@@ -10188,24 +10815,27 @@
         <v>70000</v>
       </c>
       <c r="M197" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N197" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14">
+        <v>375</v>
+      </c>
+      <c r="O197" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C198" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D198" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E198">
         <v>15882</v>
@@ -10232,10 +10862,13 @@
         <v>80000</v>
       </c>
       <c r="M198" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N198" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="O198" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
